--- a/livrables/Gantt.xlsx
+++ b/livrables/Gantt.xlsx
@@ -1237,15 +1237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/livrables/Gantt.xlsx
+++ b/livrables/Gantt.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexLaptop\Documents\Loutre\livrables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Documents\Loutre\livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date de début</t>
   </si>
@@ -64,12 +64,43 @@
   <si>
     <t>Transition</t>
   </si>
+  <si>
+    <t>Itération 1</t>
+  </si>
+  <si>
+    <t>Itération 2</t>
+  </si>
+  <si>
+    <t>Itération 3</t>
+  </si>
+  <si>
+    <t>Itération 4</t>
+  </si>
+  <si>
+    <t>Itération 5</t>
+  </si>
+  <si>
+    <t>Itération 6</t>
+  </si>
+  <si>
+    <t>Itération 7</t>
+  </si>
+  <si>
+    <t>Conception des cas d'utilisation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,9 +131,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,9 +256,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Livrable 1</c:v>
                 </c:pt>
@@ -251,16 +282,37 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Itération 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Itération 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Itération 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Itération 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Itération 5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Itération 6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Itération 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42986</c:v>
                 </c:pt>
@@ -284,6 +336,27 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,9 +393,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Livrable 1</c:v>
                 </c:pt>
@@ -346,21 +419,42 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Itération 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Itération 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Itération 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Itération 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Itération 5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Itération 6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Itération 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -372,12 +466,33 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -415,9 +530,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Livrable 1</c:v>
                 </c:pt>
@@ -441,21 +556,42 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Itération 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Itération 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Itération 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Itération 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Itération 5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Itération 6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Itération 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>42</c:v>
@@ -467,13 +603,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,7 +839,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1242,10 +1399,10 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1569,218 +1726,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>42986</v>
       </c>
       <c r="C2" s="3">
-        <v>15</v>
-      </c>
-      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
         <f>F2-B2-C2</f>
-        <v>3</v>
-      </c>
-      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <f>C2+D2</f>
         <v>18</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>43004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>43004</v>
       </c>
       <c r="C3" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D17" si="0">F3-B3-C3</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">F3-B3-C3</f>
-        <v>21</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E4" si="1">C3+D3</f>
         <v>21</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>43025</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>43025</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>43067</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>43067</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>C5+D5</f>
         <v>19</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>43086</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>42986</v>
       </c>
       <c r="C6" s="3">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E9" si="2">C6+D6</f>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E17" si="2">C6+D6</f>
         <v>13</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>42999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <f>F6</f>
         <v>42999</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f>F6+20</f>
         <v>43019</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f>F7</f>
         <v>43019</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E8">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f>F7+60</f>
         <v>43079</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <f>F8</f>
         <v>43079</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
         <f>F5</f>
         <v>43086</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42986</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43004</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43004</v>
+      </c>
+      <c r="C11" s="3">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43025</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <f>F12</f>
+        <v>43035</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ref="B14:B16" si="3">F13</f>
+        <v>43044</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="3"/>
+        <v>43067</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="3"/>
+        <v>43076</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42986</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
